--- a/Liste_Prix_A_remplir.xlsx
+++ b/Liste_Prix_A_remplir.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinmonteiro/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="14115" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Tarif à l'arrêt (Attente)</t>
   </si>
@@ -71,6 +84,62 @@
   <si>
     <t>*Merci de remplir ces cases, mettre un commentaire si cela est nécessaire dans le colonne tout à droite
 ! Cette liste de prix doit correspondre au compteur des taxis de TaxiDoudou afin d'avoir une concordance entre le prix réel et le prix affiché sur le site !</t>
+  </si>
+  <si>
+    <t>6.-</t>
+  </si>
+  <si>
+    <t>2.-/pers</t>
+  </si>
+  <si>
+    <t>Pour taxibus il faut demander le nb de personnes (minimum 7 personnes)</t>
+  </si>
+  <si>
+    <t>4.-</t>
+  </si>
+  <si>
+    <t>60.-/h</t>
+  </si>
+  <si>
+    <r>
+      <t>Pas besoin de tenir ça en compte dans le calcul mais le mettre comme</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> commentaire</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Utilisation de la remorque 0.7/km</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Forfais à convenir avec le client mettre dans </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commentaire</t>
+    </r>
+  </si>
+  <si>
+    <t>Disponible qu'avec le taxibus et demander 4h à l'avance</t>
   </si>
 </sst>
 </file>
@@ -78,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -140,7 +209,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -151,7 +220,13 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -160,16 +235,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -192,7 +261,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,14 +299,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -267,12 +336,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -302,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,61 +548,61 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="16.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2"/>
-    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -547,7 +616,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -559,111 +628,151 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -677,98 +786,125 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E14:J14"/>
@@ -779,11 +915,6 @@
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
     <mergeCell ref="E17:J17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -797,7 +928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -809,7 +940,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
